--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc12.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc12.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é a obrigação geral dos Estados em relação ao meio marinho estabelecida no Artigo 192?</t>
+          <t>Qual é a obrigação geral dos Estados em relação ao meio marinho conforme estabelecido no Artigo 192?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Os Estados têm a obrigação de proteger e preservar o meio marinho.</t>
+          <t>Os Estados têm a obrigação de proteger e preservar o meio marinho, conforme o Art. 192.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Como deve ser exercido o direito de soberania dos Estados para aproveitar seus recursos naturais?</t>
+          <t>De que maneira os Estados devem exercer seu direito de soberania para aproveitar seus recursos naturais no contexto ambiental?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>De acordo com sua política ambiental e seu dever de proteger e preservar o meio marinho.</t>
+          <t>Devem exercer esse direito de acordo com sua política ambiental e em conformidade com o dever de proteger e preservar o meio marinho, conforme o Art. 193.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>As medidas para prevenir a poluição do meio marinho devem referir-se a quais fontes?</t>
+          <t>Que tipos de medidas os Estados devem tomar para lidar com a poluição do meio marinho?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Devem referir-se a todas as fontes de poluição (terrestres, atmosféricas, alijamento, embarcações, instalações, etc.).</t>
+          <t>Devem tomar todas as medidas compatíveis com a Convenção necessárias para prevenir, reduzir e controlar a poluição de qualquer fonte, conforme o Art. 194, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O que os Estados devem evitar ao tomar medidas para prevenir a poluição, em relação à transferência de danos?</t>
+          <t>Qual é o dever dos Estados ao tomar medidas para prevenir a poluição, no que tange à transferência de danos?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Devem agir de modo a não transferir danos ou riscos de uma zona para outra nem transformar um tipo de poluição em outro.</t>
+          <t>Devem agir de modo a não transferir direta ou indiretamente danos ou riscos de uma zona para outra, nem transformar um tipo de poluição em outro, conforme o Art. 195.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual a obrigação dos Estados quanto à introdução de espécies estranhas ou novas no meio marinho?</t>
+          <t>Qual é a responsabilidade dos Estados quanto à introdução de espécies estranhas ou novas no meio marinho?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Devem tomar medidas para prevenir, reduzir e controlar a introdução que possa provocar mudanças prejudiciais.</t>
+          <t>Devem tomar todas as medidas necessárias para prevenir, reduzir e controlar a poluição ou mudanças prejudiciais resultantes dessa introdução, conforme o Art. 196, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Como deve ocorrer a cooperação para a formulação de regras de proteção ambiental?</t>
+          <t>Como deve ocorrer a cooperação para a proteção do meio marinho na formulação de regras e normas?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No plano mundial e, quando apropriado, no plano regional, diretamente ou por intermédio de organizações internacionais.</t>
+          <t>Os Estados devem cooperar no plano mundial e regional, diretamente ou por intermédio de organizações internacionais, conforme o Art. 197.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O que os Estados devem promover em termos de assistência aos Estados em desenvolvimento para a proteção do meio marinho?</t>
+          <t>Em que consiste a assistência científica e técnica que os Estados devem promover aos Estados em desenvolvimento?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Programas de assistência científica, educativa, técnica, fornecimento de equipamento e formação de pessoal.</t>
+          <t>Consiste, entre outros, em formar pessoal, facilitar participação em programas, proporcionar equipamento e fornecer serviços de assessoria, conforme o Art. 202, alínea 'a'.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Em que aspectos as organizações internacionais devem dar tratamento preferencial aos Estados em desenvolvimento?</t>
+          <t>Qual é o objetivo do tratamento preferencial dado aos Estados em desenvolvimento pelas organizações internacionais?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Na distribuição de fundos, assistência técnica e utilização de seus serviços especializados.</t>
+          <t>Prevenir, reduzir e controlar a poluição do meio marinho ou minimizar os seus efeitos, conforme o Art. 203.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O que é o controle sistemático dos riscos de poluição exigido pelo Artigo 204?</t>
+          <t>Quando os Estados devem realizar a avaliação dos efeitos potenciais (avaliação ecológica) de atividades projetadas?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>É o dever de observar, medir, avaliar e analisar, mediante métodos científicos, os riscos ou efeitos de poluição do meio marinho.</t>
+          <t>Quando tiverem motivos razoáveis para acreditar que tais atividades podem causar poluição considerável ou modificações significativas e prejudiciais no meio marinho, conforme o Art. 206.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual é a obrigação dos Estados em relação à poluição de origem terrestre (rios, estuários, dutos)?</t>
+          <t>O que os Estados devem fazer em relação à poluição do meio marinho proveniente de fontes terrestres?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Adotar leis e regulamentos para prevenir, reduzir e controlar tal poluição, tendo em conta normas internacionais.</t>
+          <t>Devem adotar leis e regulamentos para prevenir, reduzir e controlar tal poluição, tendo em conta regras e normas internacionalmente acordadas, conforme o Art. 207, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>As leis nacionais sobre poluição proveniente de atividades nos fundos marinhos podem ser menos eficazes que as normas internacionais?</t>
+          <t>Qual é a exigência específica para leis e regulamentos sobre substâncias tóxicas ou nocivas de origem terrestre?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Não, não devem ser menos eficazes que as regras, normas e procedimentos internacionais.</t>
+          <t>Devem incluir disposições para minimizar, tanto quanto possível, a emissão dessas substâncias, especialmente as não degradáveis, conforme o Art. 207, parágrafo 5º.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Quem estabelece as regras para prevenir a poluição proveniente de atividades na Área?</t>
+          <t>Qual é o padrão de eficácia exigido para as leis nacionais sobre poluição proveniente de atividades nos fundos marinhos sob jurisdição nacional?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Devem ser estabelecidas de conformidade com a Parte XI (pela Autoridade/comunidade internacional).</t>
+          <t>Não devem ser menos eficazes que as regras, normas e procedimentos recomendados de caráter internacional, conforme o Art. 208, parágrafo 3º.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>O alijamento no mar territorial, ZEE ou plataforma continental pode ser feito sem consentimento do Estado costeiro?</t>
+          <t>Qual é a condição para a realização de alijamento no mar territorial, zona econômica exclusiva ou plataforma continental?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Não, não pode realizar-se sem o consentimento prévio expresso do Estado costeiro.</t>
+          <t>Não pode realizar-se sem o consentimento prévio expresso do Estado costeiro, conforme o Art. 210, parágrafo 5º.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quem deve estabelecer regras e normas de caráter internacional para prevenir a poluição proveniente de embarcações?</t>
+          <t>Quem deve estabelecer regras e normas internacionais para prevenir a poluição proveniente de embarcações?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Os Estados, por intermédio da organização internacional competente ou de uma conferência diplomática geral.</t>
+          <t>Os Estados, atuando por intermédio da organização internacional competente ou de uma conferência diplomática geral, conforme o Art. 211, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode adotar leis para controlar poluição de embarcações estrangeiras no mar territorial?</t>
+          <t>Os Estados costeiros podem adotar leis para controlar a poluição de embarcações estrangeiras em seu mar territorial?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sim, desde que tais leis não dificultem a passagem inocente das embarcações estrangeiras.</t>
+          <t>Sim, desde que tais leis e regulamentos não dificultem a passagem inocente de embarcações estrangeiras, conforme o Art. 211, parágrafo 4º.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Quando um Estado costeiro pode adotar medidas obrigatórias especiais em uma área da ZEE?</t>
+          <t>Quando um Estado costeiro pode adotar medidas obrigatórias especiais para uma área da sua zona econômica exclusiva?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Quando condições oceanográficas e ecológicas particulares o exigirem, mediante aprovação da organização internacional competente.</t>
+          <t>Quando, por razões técnicas reconhecidas relacionadas às condições oceanográficas e ecológicas e após aprovação da organização competente, as regras internacionais forem inadequadas, conforme o Art. 211, parágrafo 6º, alínea 'a'.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>As regras internacionais sobre poluição devem incluir notificação imediata a quem em caso de acidentes?</t>
+          <t>A quem se aplicam as leis adotadas pelos Estados para controlar a poluição proveniente da atmosfera?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aos Estados costeiros cujo litoral ou interesses conexos possam ser afetados.</t>
+          <t>Ao espaço aéreo sob sua soberania e a embarcações que arvorem sua bandeira ou estejam registradas em seu território, conforme o Art. 212, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sobre qual espaço aéreo os Estados devem aplicar leis para controlar a poluição atmosférica?</t>
+          <t>Quem é responsável pela execução das leis e regulamentos referentes à poluição de origem terrestre?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Aplicáveis ao espaço aéreo sob sua soberania e a embarcações/aeronaves de sua bandeira ou registro.</t>
+          <t>Os próprios Estados devem assegurar a execução de suas leis e regulamentos adotados de conformidade com o artigo 207, conforme o Art. 213.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Quem executa as leis e regulamentos referentes à poluição por alijamento na ZEE?</t>
+          <t>Quem deve executar as leis para prevenir a poluição por alijamento no mar territorial ou zona econômica exclusiva?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O Estado costeiro.</t>
+          <t>O Estado costeiro deve executar as leis no que se refere ao alijamento nessas áreas, conforme o Art. 216, parágrafo 1º, alínea 'a'.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O que o Estado de bandeira deve fazer se suas embarcações não cumprirem requisitos internacionais de projeto e equipamento?</t>
+          <t>O que os Estados devem fazer com embarcações de sua bandeira que não cumpram os requisitos internacionais de proteção ambiental?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Deve proibi-las de navegar enquanto não estiverem em condições de fazer-se ao mar em cumprimento dos requisitos.</t>
+          <t>Devem proibi-las de navegar enquanto não estiverem em condições de fazer-se ao mar em cumprimento dos requisitos, conforme o Art. 217, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O Estado de bandeira deve investigar infrações cometidas por seus navios independentemente do local?</t>
+          <t>Qual é a obrigação do Estado de bandeira ao receber um pedido de investigação de infração feito por outro Estado?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sim, deve ordenar investigação imediata e iniciar procedimentos independentemente de onde ocorreu a infração.</t>
+          <t>Deve investigar qualquer infração alegada e, se houver provas suficientes, iniciar sem demora os procedimentos conforme seu direito interno, nos termos do Art. 217, parágrafo 6º.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1061,23 +1061,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Quando o Estado do porto pode investigar descargas ilegais ocorridas fora de suas águas territoriais?</t>
+          <t>Quando o Estado do porto pode iniciar procedimentos relativos a descargas ilegais ocorridas fora de suas águas?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Quando a embarcação se encontrar voluntariamente no seu porto ou terminal ao largo da costa.</t>
+          <t>Quando a embarcação se encontrar voluntariamente num porto ou terminal ao largo da costa desse Estado, conforme o Art. 218, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1089,23 +1089,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O que o Estado deve fazer se uma embarcação em seu porto violar normas de navegabilidade e ameaçar o meio marinho?</t>
+          <t>Que medida administrativa o Estado deve tomar se comprovar que uma embarcação em seu porto viola normas de navegabilidade?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tomar medidas administrativas para impedir que a embarcação navegue, permitindo apenas reparos.</t>
+          <t>Deve impedir que a embarcação navegue, autorizando apenas o prosseguimento até o estaleiro de reparos mais próximo, conforme o Art. 219.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1117,23 +1117,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O que o Estado costeiro pode exigir de um navio na ZEE se houver suspeita de violação de regras de poluição?</t>
+          <t>O que o Estado costeiro pode fazer se houver prova manifesta de que uma embarcação na ZEE cometeu infração causando descarga com danos importantes ao litoral?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Informações sobre identidade, porto de registro, última e próxima escala e outras informações pertinentes.</t>
+          <t>Pode iniciar procedimentos, incluindo a detenção da embarcação, de conformidade com o seu direito interno, nos termos do Art. 220, parágrafo 6º.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1145,23 +1145,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Em que situação o Estado costeiro pode deter uma embarcação estrangeira na ZEE por poluição?</t>
+          <t>Os Estados podem tomar medidas além do mar territorial em caso de acidente marítimo?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Quando houver prova manifesta de descarga que provoque ou ameace provocar danos importantes ao litoral ou interesses do Estado.</t>
+          <t>Sim, para proteger seu litoral de poluição resultante de acidente marítimo do qual se prevejam consequências nocivas importantes, conforme o Art. 221, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1173,23 +1173,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O Estado tem direito de intervir além do mar territorial em caso de acidente marítimo?</t>
+          <t>Como deve ser a execução das leis relativas à poluição proveniente da atmosfera?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sim, para proteger seu litoral contra poluição ou ameaça de poluição resultante do acidente.</t>
+          <t>Os Estados devem assegurar a execução no espaço aéreo sob sua soberania ou em relação a embarcações de sua bandeira/registro, conforme o Art. 222.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1201,23 +1201,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Quem está autorizado a exercer poderes de polícia contra embarcações estrangeiras?</t>
+          <t>Quem pode exercer os poderes de polícia em relação a embarcações estrangeiras segundo a Convenção?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Apenas navios de guerra, aeronaves militares ou outros devidamente autorizados e identificados como serviço governamental.</t>
+          <t>Somente funcionários oficialmente habilitados, navios de guerra, aeronaves militares ou outros navios/aeronaves com sinais claros de serviço governamental, conforme o Art. 224.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1229,23 +1229,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O que os Estados não devem fazer ao exercer poderes de polícia quanto à segurança da embarcação fiscalizada?</t>
+          <t>Qual restrição é imposta ao exercício dos poderes de polícia para não afetar a segurança da navegação?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Não devem pôr em perigo a segurança da navegação nem conduzi-la a porto inseguro.</t>
+          <t>Os Estados não devem pôr em perigo a segurança da navegação nem conduzir a embarcação a um porto ou fundeadouro inseguro, conforme o Art. 225.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A que se limita inicialmente a inspeção material de uma embarcação estrangeira?</t>
+          <t>Quando é permitida uma inspeção física detalhada de uma embarcação estrangeira?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ao exame dos certificados, registros e outros documentos exigidos internacionalmente.</t>
+          <t>Apenas se houver motivos sérios para crer que a condição da embarcação não corresponde aos documentos, ou se estes forem insuficientes ou inexistentes, conforme o Art. 226, parágrafo 1º, alínea 'a'.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1285,23 +1285,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O que acontece com os procedimentos do Estado costeiro se o Estado de bandeira assumir o caso?</t>
+          <t>Em que situação os procedimentos para imposição de penalidades por infração de poluição devem ser suspensos?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Serão suspensos (salvo em casos de danos graves ao Estado costeiro) e posteriormente extintos.</t>
+          <t>Quando o Estado de bandeira tiver instaurado procedimentos para imposição de penalidades com base em acusações correspondentes, conforme o Art. 228, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1313,23 +1313,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Qual é o prazo prescricional para instaurar procedimentos contra embarcações estrangeiras?</t>
+          <t>Que tipo de pena pode ser imposta por infrações de poluição cometidas por embarcações estrangeiras além do mar territorial?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Três anos a contar da data em que a infração foi cometida.</t>
+          <t>Só podem ser impostas penas pecuniárias, conforme o Art. 230, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1341,23 +1341,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Que tipo de sanções podem ser impostas a embarcações estrangeiras por infrações de poluição além do mar territorial?</t>
+          <t>Os Estados são responsáveis por medidas de execução ilegais ou excessivas?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Apenas penas pecuniárias (multas).</t>
+          <t>Sim, serão responsáveis por perdas ou danos decorrentes de medidas ilegais ou que excederem o razoavelmente necessário, conforme o Art. 232.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1369,23 +1369,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O que os Estados têm direito de fazer em áreas cobertas de gelo na ZEE?</t>
+          <t>Quando os Estados ribeirinhos de estreitos podem tomar medidas de execução contra navios estrangeiros por infrações ambientais?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Adotar leis não discriminatórias para controlar a poluição, devido aos perigos excepcionais para a navegação e ecossistema.</t>
+          <t>Se a infração causar ou ameaçar causar danos graves ao meio marinho dos estreitos, conforme o Art. 233.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Qual é a responsabilidade dos Estados por danos resultantes da poluição por pessoas sob sua jurisdição?</t>
+          <t>Qual é a obrigação dos Estados quanto à reparação de danos resultantes da poluição do meio marinho por pessoas sob sua jurisdição?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Devem assegurar, através do direito interno, meios de recurso para indenização pronta e adequada.</t>
+          <t>Devem assegurar, através do seu direito interno, meios de recurso que permitam obter uma indenização pronta e adequada, conforme o Art. 235, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1425,23 +1425,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>As regras da Convenção sobre meio marinho se aplicam a navios de guerra em serviço não comercial?</t>
+          <t>As disposições sobre proteção do meio marinho se aplicam a navios de guerra?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Não, eles gozam de imunidade soberana, mas devem agir de modo compatível na medida do possível.</t>
+          <t>Não, as disposições não se aplicam a navios de guerra ou embarcações de Estado em serviço governamental não comercial, devido à imunidade soberana prevista no Art. 236.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
@@ -1453,23 +1453,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Como a Parte XII se relaciona com outras convenções sobre proteção do meio marinho?</t>
+          <t>Como a Parte XII afeta as obrigações de outras convenções especiais sobre proteção do meio marinho?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>As obrigações de outras convenções devem ser cumpridas de modo compatível com os princípios da presente Convenção.</t>
+          <t>Não afeta as obrigações específicas, desde que sejam cumpridas de modo compatível com os princípios e objetivos gerais desta Convenção, conforme o Art. 237.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
     </row>
